--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -1271,7 +1271,7 @@
   <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="str">
-        <f t="shared" ref="A5:A51" si="0">IF(ISBLANK(D5),B5&amp;"_"&amp;C5,B5&amp;"_"&amp;C5&amp;"_"&amp;D5)</f>
+        <f t="shared" ref="A5:A54" si="0">IF(ISBLANK(D5),B5&amp;"_"&amp;C5,B5&amp;"_"&amp;C5&amp;"_"&amp;D5)</f>
         <v>ski_reimu</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="str">
-        <f>IF(ISBLANK(D52),B52&amp;"_"&amp;C52,B52&amp;"_"&amp;C52&amp;"_"&amp;D52)</f>
+        <f t="shared" si="0"/>
         <v>cp_alice_patchouli</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2192,7 +2192,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="str">
-        <f>IF(ISBLANK(D53),B53&amp;"_"&amp;C53,B53&amp;"_"&amp;C53&amp;"_"&amp;D53)</f>
+        <f t="shared" si="0"/>
         <v>cp_marisa_alice_patchouli</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2208,7 +2208,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="str">
-        <f>IF(ISBLANK(D54),B54&amp;"_"&amp;C54,B54&amp;"_"&amp;C54&amp;"_"&amp;D54)</f>
+        <f t="shared" si="0"/>
         <v>cp_marisa_narumi</v>
       </c>
       <c r="B54" s="1" t="s">

--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>string</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>cd</t>
+  </si>
+  <si>
+    <t>reduction</t>
   </si>
   <si>
     <t>额外冷却时间缩减</t>
@@ -1271,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2067,7 +2070,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>cd_addition</v>
+        <v>cd_reduction</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -2076,10 +2079,10 @@
         <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2088,7 +2091,7 @@
         <v>cp_reimu_marisa</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
@@ -2097,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2106,7 +2109,7 @@
         <v>cp_reimu_sanae</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>18</v>
@@ -2115,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
@@ -2124,7 +2127,7 @@
         <v>cp_reimu_misumaru</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
@@ -2133,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
@@ -2142,7 +2145,7 @@
         <v>cp_marisa_alice</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>48</v>
@@ -2151,7 +2154,7 @@
         <v>26</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2160,7 +2163,7 @@
         <v>cp_marisa_patchouli</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>48</v>
@@ -2169,7 +2172,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2178,7 +2181,7 @@
         <v>cp_alice_patchouli</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>26</v>
@@ -2187,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2196,14 +2199,14 @@
         <v>cp_marisa_alice_patchouli</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2212,7 +2215,7 @@
         <v>cp_marisa_narumi</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>48</v>
@@ -2221,7 +2224,7 @@
         <v>39</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F02B8-EF99-4B72-A15B-0F898302713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TID" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t>string</t>
   </si>
@@ -330,19 +336,33 @@
   </si>
   <si>
     <t>魔理沙×成美</t>
+  </si>
+  <si>
+    <t>ski_basemagic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ski_basephysics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ski</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础弹幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础近战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,345 +377,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -703,255 +406,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,62 +422,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1266,28 +689,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.6363636363636" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="8" width="15.1272727272727" style="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="15.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="str">
         <f>IF(ISBLANK(D4),B4&amp;"_"&amp;C4,B4&amp;"_"&amp;C4&amp;"_"&amp;D4)</f>
         <v>ui_upgrade</v>
@@ -1377,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="str">
         <f t="shared" ref="A5:A54" si="0">IF(ISBLANK(D5),B5&amp;"_"&amp;C5,B5&amp;"_"&amp;C5&amp;"_"&amp;D5)</f>
         <v>ski_reimu</v>
@@ -1392,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1407,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1422,7 +845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1437,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1452,7 +875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1467,7 +890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1482,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>
@@ -1497,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_patchouli</v>
@@ -1512,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_saki</v>
@@ -1527,7 +950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_narumi</v>
@@ -1542,7 +965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_junko</v>
@@ -1557,7 +980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_kisumi</v>
@@ -1572,7 +995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_momoyo</v>
@@ -1587,7 +1010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_marisa</v>
@@ -1602,7 +1025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_youmu</v>
@@ -1617,7 +1040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_daiyousei_name</v>
@@ -1635,7 +1058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_marisa_name</v>
@@ -1653,7 +1076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_youmu_name</v>
@@ -1671,7 +1094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu_dsc</v>
@@ -1689,7 +1112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae_dsc</v>
@@ -1707,7 +1130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia_dsc</v>
@@ -1725,7 +1148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle_dsc</v>
@@ -1743,7 +1166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice_dsc</v>
@@ -1761,7 +1184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki_dsc</v>
@@ -1779,7 +1202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru_dsc</v>
@@ -1797,7 +1220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya_dsc</v>
@@ -1815,7 +1238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_patchouli_dsc</v>
@@ -1833,7 +1256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_saki_dsc</v>
@@ -1851,7 +1274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_narumi_dsc</v>
@@ -1869,7 +1292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_junko_dsc</v>
@@ -1887,7 +1310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_kisumi_dsc</v>
@@ -1905,7 +1328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_momoyo_dsc</v>
@@ -1923,7 +1346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_marisa_dsc</v>
@@ -1941,7 +1364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_youmu_dsc</v>
@@ -1959,7 +1382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="str">
         <f>C40&amp;"_"&amp;D40</f>
         <v>damage_addition</v>
@@ -1977,7 +1400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="str">
         <f t="shared" ref="A41:A46" si="1">C41&amp;"_"&amp;D41</f>
         <v>bullet_speed_addition</v>
@@ -1995,7 +1418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>duration_addition</v>
@@ -2013,7 +1436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>range_addition</v>
@@ -2031,7 +1454,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>times_addition</v>
@@ -2049,7 +1472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>buff_addition</v>
@@ -2067,7 +1490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>cd_reduction</v>
@@ -2085,7 +1508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_marisa</v>
@@ -2103,7 +1526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_sanae</v>
@@ -2121,7 +1544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:5">
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_misumaru</v>
@@ -2139,7 +1562,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:5">
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_alice</v>
@@ -2157,7 +1580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_patchouli</v>
@@ -2175,7 +1598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_alice_patchouli</v>
@@ -2193,7 +1616,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_alice_patchouli</v>
@@ -2204,12 +1627,11 @@
       <c r="C53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_narumi</v>
@@ -2227,9 +1649,31 @@
         <v>100</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516F02B8-EF99-4B72-A15B-0F898302713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C46E21-277E-4D13-AE0D-C0BCB57A9EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22665" yWindow="1320" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TID" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE32EEE-88CD-4EC7-98AB-29C19E280682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="TID" sheetId="1" r:id="rId1"/>
@@ -131,6 +125,9 @@
     <t>keine</t>
   </si>
   <si>
+    <t>数符「平面几何初步」</t>
+  </si>
+  <si>
     <t>psv</t>
   </si>
   <si>
@@ -354,17 +351,19 @@
   </si>
   <si>
     <t>额外冷却时间缩减</t>
-  </si>
-  <si>
-    <t>数符「直线、射线、线段」</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,28 +384,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -414,13 +730,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,33 +988,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,1141 +1299,1141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.6272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6272727272727" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="1" customWidth="1"/>
-    <col min="6" max="8" width="15.125" style="1"/>
+    <col min="6" max="8" width="15.1272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A47" si="0">IF(ISBLANK(D4),B4&amp;"_"&amp;C4,B4&amp;"_"&amp;C4&amp;"_"&amp;D4)</f>
         <v>cp_reimu_marisa</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_sanae</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_misumaru</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_alice</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_patchouli</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_alice_patchouli</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_alice_patchouli</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_narumi</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esc_keine_1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_patchouli</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_saki</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_saki</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_narumi</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_junko</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_kisumi</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_momoyo</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_patchouli_dsc</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>psv_saki_dsc</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_saki_dsc</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_narumi_dsc</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_junko_dsc</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_kisumi_dsc</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>psv_momoyo_dsc</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_marisa</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sc_youmu</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_youmu</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_daiyousei_name</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_marisa_name</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_youmu_name</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_marisa_dsc</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>43</v>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>sc_youmu_dsc</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_sanae</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sanae</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu_dsc</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>43</v>
+      <c r="D40" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae_dsc</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>43</v>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia_dsc</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>43</v>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle_dsc</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>43</v>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice_dsc</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>43</v>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki_dsc</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>43</v>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru_dsc</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>43</v>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya_dsc</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>43</v>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="6" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:7">
+      <c r="A49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:7">
       <c r="A50" s="2" t="str">
         <f>IF(ISBLANK(D50),B50&amp;"_"&amp;C50,B50&amp;"_"&amp;C50&amp;"_"&amp;D50)</f>
         <v>ui_upgrade</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="str">
         <f t="shared" ref="A51:A57" si="1">C51&amp;"_"&amp;D51</f>
         <v>damage_addition</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="str">
         <f t="shared" si="1"/>
         <v>bullet_speed_addition</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>duration_addition</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="str">
         <f t="shared" si="1"/>
         <v>range_addition</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="str">
         <f t="shared" si="1"/>
         <v>times_addition</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>buff_addition</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="str">
         <f t="shared" si="1"/>
         <v>cd_reduction</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="E57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G57">
+  <sortState ref="A4:G57">
     <sortCondition ref="B4:B57"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="156">
   <si>
     <t>string</t>
   </si>
@@ -125,7 +125,10 @@
     <t>keine</t>
   </si>
   <si>
-    <t>数符「平面几何初步」</t>
+    <t>数符「直线、射线、线段」</t>
+  </si>
+  <si>
+    <t>史符「赤壁业炎」</t>
   </si>
   <si>
     <t>psv</t>
@@ -351,6 +354,147 @@
   </si>
   <si>
     <t>额外冷却时间缩减</t>
+  </si>
+  <si>
+    <t>上白泽慧音</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>铭刻历史的半兽教师</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>stg1before</t>
+  </si>
+  <si>
+    <t>诶，这不是咱们上次考试的状元嘛。</t>
+  </si>
+  <si>
+    <t>今天怎么才来呢，是身体不舒服吗？</t>
+  </si>
+  <si>
+    <t>上白泽老师！</t>
+  </si>
+  <si>
+    <t>那…那个，不好意思老师，我这边今天遇到了很奇怪的事情……</t>
+  </si>
+  <si>
+    <t>现在可能是有点，嗯，不太安全。老师您能不能帮帮我呜——</t>
+  </si>
+  <si>
+    <t>好啦好啦别着急，是遇到了怎样的危险呢，可以和老师讲讲吗？</t>
+  </si>
+  <si>
+    <t>呼……嗯，应该是从今天早上开始的，我见到的每一个人都会完全无视我。</t>
+  </si>
+  <si>
+    <t>不管我说什么做什么，大家都没有任何回应。</t>
+  </si>
+  <si>
+    <t>现在这还是我今天第一次和别人说话呜呜……</t>
+  </si>
+  <si>
+    <t>太久没法与人交流的话确实是会很难受呢。</t>
+  </si>
+  <si>
+    <t>不过干着急也不是办法，现在当务之急是搞清楚问题所在，之后尽快想办法去解决。</t>
+  </si>
+  <si>
+    <t>老师这边能看出来一点线索：你的「历史」正在消失。</t>
+  </si>
+  <si>
+    <t>……历史？消失？</t>
+  </si>
+  <si>
+    <t>所谓历史，是对发生过的事件的记载。</t>
+  </si>
+  <si>
+    <t>如果某一历史消失了，那就再不会有人知道对应的事件曾实际发生过。</t>
+  </si>
+  <si>
+    <t>现在的情况是与你有关的历史正在以不正常的速度快速消失。</t>
+  </si>
+  <si>
+    <t>这种情况老师也从来没有见过，你可以去请教一下稗田阿求老师，她应该对此有更多了解。</t>
+  </si>
+  <si>
+    <t>诶，要去稗田老师家里找她吗？呜……</t>
+  </si>
+  <si>
+    <t>不用紧张，大家人都很好的。</t>
+  </si>
+  <si>
+    <t>老师这边没办法帮到你太多，但有个缓兵之计。</t>
+  </si>
+  <si>
+    <t>咱们可以来创造新的历史，从而相对延缓你历史消失的速度。</t>
+  </si>
+  <si>
+    <t>那就多谢老师了！……诶老师您为什么要拿课本出来呀？！</t>
+  </si>
+  <si>
+    <t>stg1after</t>
+  </si>
+  <si>
+    <t>“某年月日，上白泽慧音与学生战斗，败北。”就先这么写好了~</t>
+  </si>
+  <si>
+    <t>stg2after</t>
+  </si>
+  <si>
+    <t>呜，老师您不是可以直接创造历史嘛，为什么还要打一架呢？</t>
+  </si>
+  <si>
+    <t>stg3after</t>
+  </si>
+  <si>
+    <t>这种事只有满月时候才能做到啦。这还正好把今天的课补上了，挺好的嘛。</t>
+  </si>
+  <si>
+    <t>stg4after</t>
+  </si>
+  <si>
+    <t>那头槌那部分算什么啦——</t>
+  </si>
+  <si>
+    <t>stg5after</t>
+  </si>
+  <si>
+    <t>老师能帮你的就这么多了。要加油哦，老师等着你早点解决危机回来上课呢。</t>
+  </si>
+  <si>
+    <t>stg6after</t>
+  </si>
+  <si>
+    <t>班上其他妖精都太不让人省心了……</t>
+  </si>
+  <si>
+    <t>stg7after</t>
+  </si>
+  <si>
+    <t>诶嘿~谢谢老师！</t>
+  </si>
+  <si>
+    <t>stg8after</t>
+  </si>
+  <si>
+    <t>另外这是今天新发的练习册，开学前要完成前20页。</t>
+  </si>
+  <si>
+    <t>stg9after</t>
+  </si>
+  <si>
+    <t>你的话前面的题挑着做就可以，但大题还是要认真做完哦。</t>
+  </si>
+  <si>
+    <t>stg10after</t>
+  </si>
+  <si>
+    <t>呜啊—谢谢老师！</t>
   </si>
 </sst>
 </file>
@@ -363,19 +507,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -848,137 +986,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,9 +1124,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1305,10 +1440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1316,8 +1451,8 @@
     <col min="1" max="1" width="28.6272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="90.5454545454545" style="1" customWidth="1"/>
     <col min="6" max="8" width="15.1272727272727" style="1"/>
   </cols>
   <sheetData>
@@ -1392,7 +1527,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A47" si="0">IF(ISBLANK(D4),B4&amp;"_"&amp;C4,B4&amp;"_"&amp;C4&amp;"_"&amp;D4)</f>
+        <f t="shared" ref="A4:A13" si="0">IF(ISBLANK(D4),B4&amp;"_"&amp;C4,B4&amp;"_"&amp;C4&amp;"_"&amp;D4)</f>
         <v>cp_reimu_marisa</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1521,7 +1656,6 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1562,7 +1696,7 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2"/>
@@ -1571,51 +1705,51 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>psv_patchouli</v>
+        <v>esc_keine_2</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_saki</v>
+        <f t="shared" ref="A14:A48" si="1">IF(ISBLANK(D14),B14&amp;"_"&amp;C14,B14&amp;"_"&amp;C14&amp;"_"&amp;D14)</f>
+        <v>psv_patchouli</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_narumi</v>
+        <f t="shared" si="1"/>
+        <v>psv_saki</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1624,93 +1758,87 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_junko</v>
+        <f t="shared" si="1"/>
+        <v>psv_narumi</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_kisumi</v>
+        <f t="shared" si="1"/>
+        <v>psv_junko</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_momoyo</v>
+        <f t="shared" si="1"/>
+        <v>psv_kisumi</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_patchouli_dsc</v>
+        <f t="shared" si="1"/>
+        <v>psv_momoyo</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_saki_dsc</v>
+        <f t="shared" si="1"/>
+        <v>psv_patchouli_dsc</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="2"/>
@@ -1718,19 +1846,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_narumi_dsc</v>
+        <f t="shared" si="1"/>
+        <v>psv_saki_dsc</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="2"/>
@@ -1738,19 +1866,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_junko_dsc</v>
+        <f t="shared" si="1"/>
+        <v>psv_narumi_dsc</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="2"/>
@@ -1758,19 +1886,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_kisumi_dsc</v>
+        <f t="shared" si="1"/>
+        <v>psv_junko_dsc</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="2"/>
@@ -1778,19 +1906,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>psv_momoyo_dsc</v>
+        <f t="shared" si="1"/>
+        <v>psv_kisumi_dsc</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="2"/>
@@ -1798,73 +1926,71 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_marisa</v>
+        <f t="shared" si="1"/>
+        <v>psv_momoyo_dsc</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_youmu</v>
+        <f t="shared" si="1"/>
+        <v>sc_marisa</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_daiyousei_name</v>
+        <f t="shared" si="1"/>
+        <v>sc_youmu</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_marisa_name</v>
+        <f t="shared" si="1"/>
+        <v>sc_daiyousei_name</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1874,17 +2000,17 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_youmu_name</v>
+        <f t="shared" si="1"/>
+        <v>sc_marisa_name</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
@@ -1894,19 +2020,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_marisa_dsc</v>
+        <f t="shared" si="1"/>
+        <v>sc_youmu_name</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="2"/>
@@ -1914,19 +2040,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sc_youmu_dsc</v>
+        <f t="shared" si="1"/>
+        <v>sc_marisa_dsc</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="2"/>
@@ -1934,34 +2060,35 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_reimu</v>
+        <f t="shared" si="1"/>
+        <v>sc_youmu_dsc</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sanae</v>
+        <f t="shared" si="1"/>
+        <v>ski_reimu</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>14</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1970,52 +2097,49 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_rumia</v>
+        <f t="shared" si="1"/>
+        <v>ski_sanae</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_wriggle</v>
+        <f t="shared" si="1"/>
+        <v>ski_rumia</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_alice</v>
+        <f t="shared" si="1"/>
+        <v>ski_wriggle</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>68</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2024,34 +2148,32 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sekibanki</v>
+        <f t="shared" si="1"/>
+        <v>ski_alice</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_misumaru</v>
+        <f t="shared" si="1"/>
+        <v>ski_sekibanki</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>71</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
@@ -2060,37 +2182,33 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sakuya</v>
+        <f t="shared" si="1"/>
+        <v>ski_misumaru</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_reimu_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_sakuya</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F40" s="2"/>
@@ -2098,19 +2216,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sanae_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_reimu_dsc</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="2"/>
@@ -2118,19 +2236,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_rumia_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_sanae_dsc</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="2"/>
@@ -2138,19 +2256,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_wriggle_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_rumia_dsc</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F43" s="2"/>
@@ -2158,19 +2276,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_alice_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_wriggle_dsc</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F44" s="2"/>
@@ -2178,19 +2296,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sekibanki_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_alice_dsc</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F45" s="2"/>
@@ -2198,19 +2316,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_misumaru_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_sekibanki_dsc</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F46" s="2"/>
@@ -2218,215 +2336,852 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sakuya_dsc</v>
+        <f t="shared" si="1"/>
+        <v>ski_misumaru_dsc</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ski_sakuya_dsc</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:7">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="E49" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:7">
-      <c r="A50" s="2" t="str">
-        <f>IF(ISBLANK(D50),B50&amp;"_"&amp;C50,B50&amp;"_"&amp;C50&amp;"_"&amp;D50)</f>
-        <v>ui_upgrade</v>
+      <c r="A50" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:7">
+      <c r="A51" s="2" t="str">
+        <f>IF(ISBLANK(D51),B51&amp;"_"&amp;C51,B51&amp;"_"&amp;C51&amp;"_"&amp;D51)</f>
+        <v>ui_upgrade</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2" t="str">
-        <f t="shared" ref="A51:A57" si="1">C51&amp;"_"&amp;D51</f>
-        <v>damage_addition</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>bullet_speed_addition</v>
+        <f t="shared" ref="A52:A58" si="2">C52&amp;"_"&amp;D52</f>
+        <v>damage_addition</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>duration_addition</v>
+        <f t="shared" si="2"/>
+        <v>bullet_speed_addition</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>range_addition</v>
+        <f t="shared" si="2"/>
+        <v>duration_addition</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>times_addition</v>
+        <f t="shared" si="2"/>
+        <v>range_addition</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>buff_addition</v>
+        <f t="shared" si="2"/>
+        <v>times_addition</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>cd_reduction</v>
+        <f t="shared" si="2"/>
+        <v>buff_addition</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>cd_reduction</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="str">
+        <f t="shared" ref="A59:A63" si="3">IF(ISBLANK(D59),B59&amp;"_"&amp;C59,B59&amp;"_"&amp;C59&amp;"_"&amp;D59)</f>
+        <v>name_daiyousei</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>name_keine</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>title_keine</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dialog_stg1before_1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dialog_stg1before_2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="str">
+        <f t="shared" ref="A64:A85" si="4">IF(ISBLANK(D64),B64&amp;"_"&amp;C64,B64&amp;"_"&amp;C64&amp;"_"&amp;D64)</f>
+        <v>dialog_stg1before_3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_4</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="2">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="2">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="2">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_13</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="2">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="2">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_16</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="2">
+        <v>16</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_17</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="2">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_18</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="2">
+        <v>18</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_19</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="2">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_20</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="2">
+        <v>20</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_21</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="2">
+        <v>21</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1before_22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="2">
+        <v>22</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg1after_1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dialog_stg2after_2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="str">
+        <f t="shared" ref="A86:A93" si="5">IF(ISBLANK(D86),B86&amp;"_"&amp;C86,B86&amp;"_"&amp;C86&amp;"_"&amp;D86)</f>
+        <v>dialog_stg3after_3</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg4after_4</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg5after_5</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="2">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg6after_6</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg7after_7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg8after_8</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="2">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg9after_9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="2">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dialog_stg10after_10</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="2">
+        <v>10</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A4:G57">

--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -1442,8 +1442,8 @@
   <sheetPr/>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A63FDF-B6AF-4D14-9B1F-A81682B02863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TID" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="148">
   <si>
     <t>string</t>
   </si>
@@ -443,71 +447,42 @@
     <t>“某年月日，上白泽慧音与学生战斗，败北。”就先这么写好了~</t>
   </si>
   <si>
-    <t>stg2after</t>
-  </si>
-  <si>
     <t>呜，老师您不是可以直接创造历史嘛，为什么还要打一架呢？</t>
   </si>
   <si>
-    <t>stg3after</t>
-  </si>
-  <si>
     <t>这种事只有满月时候才能做到啦。这还正好把今天的课补上了，挺好的嘛。</t>
   </si>
   <si>
-    <t>stg4after</t>
-  </si>
-  <si>
     <t>那头槌那部分算什么啦——</t>
   </si>
   <si>
-    <t>stg5after</t>
-  </si>
-  <si>
     <t>老师能帮你的就这么多了。要加油哦，老师等着你早点解决危机回来上课呢。</t>
   </si>
   <si>
-    <t>stg6after</t>
-  </si>
-  <si>
     <t>班上其他妖精都太不让人省心了……</t>
   </si>
   <si>
-    <t>stg7after</t>
-  </si>
-  <si>
     <t>诶嘿~谢谢老师！</t>
   </si>
   <si>
-    <t>stg8after</t>
-  </si>
-  <si>
     <t>另外这是今天新发的练习册，开学前要完成前20页。</t>
   </si>
   <si>
-    <t>stg9after</t>
-  </si>
-  <si>
     <t>你的话前面的题挑着做就可以，但大题还是要认真做完哦。</t>
   </si>
   <si>
-    <t>stg10after</t>
-  </si>
-  <si>
     <t>呜啊—谢谢老师！</t>
+  </si>
+  <si>
+    <t>stg1after</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,345 +497,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -868,255 +526,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,62 +545,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1434,29 +809,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="90.5454545454545" style="1" customWidth="1"/>
-    <col min="6" max="8" width="15.1272727272727" style="1"/>
+    <col min="1" max="1" width="28.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="90.54296875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="15.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A13" si="0">IF(ISBLANK(D4),B4&amp;"_"&amp;C4,B4&amp;"_"&amp;C4&amp;"_"&amp;D4)</f>
         <v>cp_reimu_marisa</v>
@@ -1545,7 +920,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_sanae</v>
@@ -1565,7 +940,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_reimu_misumaru</v>
@@ -1585,7 +960,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_alice</v>
@@ -1605,7 +980,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_patchouli</v>
@@ -1625,7 +1000,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_alice_patchouli</v>
@@ -1645,7 +1020,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_alice_patchouli</v>
@@ -1662,7 +1037,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cp_marisa_narumi</v>
@@ -1682,7 +1057,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esc_keine_1</v>
@@ -1702,7 +1077,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>esc_keine_2</v>
@@ -1722,7 +1097,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" ref="A14:A48" si="1">IF(ISBLANK(D14),B14&amp;"_"&amp;C14,B14&amp;"_"&amp;C14&amp;"_"&amp;D14)</f>
         <v>psv_patchouli</v>
@@ -1739,7 +1114,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_saki</v>
@@ -1756,7 +1131,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_narumi</v>
@@ -1773,7 +1148,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_junko</v>
@@ -1790,7 +1165,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_kisumi</v>
@@ -1807,7 +1182,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_momoyo</v>
@@ -1824,7 +1199,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_patchouli_dsc</v>
@@ -1844,7 +1219,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_saki_dsc</v>
@@ -1864,7 +1239,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_narumi_dsc</v>
@@ -1884,7 +1259,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_junko_dsc</v>
@@ -1904,7 +1279,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_kisumi_dsc</v>
@@ -1924,7 +1299,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>psv_momoyo_dsc</v>
@@ -1944,7 +1319,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_marisa</v>
@@ -1961,7 +1336,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_youmu</v>
@@ -1978,7 +1353,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_daiyousei_name</v>
@@ -1998,7 +1373,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_marisa_name</v>
@@ -2018,7 +1393,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_youmu_name</v>
@@ -2038,7 +1413,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_marisa_dsc</v>
@@ -2058,7 +1433,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>sc_youmu_dsc</v>
@@ -2078,7 +1453,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_reimu</v>
@@ -2095,7 +1470,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_sanae</v>
@@ -2112,7 +1487,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_rumia</v>
@@ -2129,7 +1504,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_wriggle</v>
@@ -2146,7 +1521,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_alice</v>
@@ -2163,7 +1538,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_sekibanki</v>
@@ -2180,7 +1555,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_misumaru</v>
@@ -2197,7 +1572,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_sakuya</v>
@@ -2214,7 +1589,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_reimu_dsc</v>
@@ -2234,7 +1609,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_sanae_dsc</v>
@@ -2254,7 +1629,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_rumia_dsc</v>
@@ -2274,7 +1649,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_wriggle_dsc</v>
@@ -2294,7 +1669,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_alice_dsc</v>
@@ -2314,7 +1689,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_sekibanki_dsc</v>
@@ -2334,7 +1709,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_misumaru_dsc</v>
@@ -2354,7 +1729,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ski_sakuya_dsc</v>
@@ -2374,7 +1749,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -2388,7 +1763,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:7">
+    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>86</v>
       </c>
@@ -2403,7 +1778,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:7">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(ISBLANK(D51),B51&amp;"_"&amp;C51,B51&amp;"_"&amp;C51&amp;"_"&amp;D51)</f>
         <v>ui_upgrade</v>
@@ -2425,7 +1800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f t="shared" ref="A52:A58" si="2">C52&amp;"_"&amp;D52</f>
         <v>damage_addition</v>
@@ -2445,7 +1820,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f t="shared" si="2"/>
         <v>bullet_speed_addition</v>
@@ -2465,7 +1840,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f t="shared" si="2"/>
         <v>duration_addition</v>
@@ -2485,7 +1860,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f t="shared" si="2"/>
         <v>range_addition</v>
@@ -2505,7 +1880,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f t="shared" si="2"/>
         <v>times_addition</v>
@@ -2525,7 +1900,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>buff_addition</v>
@@ -2545,7 +1920,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>cd_reduction</v>
@@ -2565,7 +1940,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
         <f t="shared" ref="A59:A63" si="3">IF(ISBLANK(D59),B59&amp;"_"&amp;C59,B59&amp;"_"&amp;C59&amp;"_"&amp;D59)</f>
         <v>name_daiyousei</v>
@@ -2577,7 +1952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
         <f t="shared" si="3"/>
         <v>name_keine</v>
@@ -2592,7 +1967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f t="shared" si="3"/>
         <v>title_keine</v>
@@ -2607,7 +1982,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f t="shared" si="3"/>
         <v>dialog_stg1before_1</v>
@@ -2625,7 +2000,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
         <f t="shared" si="3"/>
         <v>dialog_stg1before_2</v>
@@ -2643,7 +2018,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
         <f t="shared" ref="A64:A85" si="4">IF(ISBLANK(D64),B64&amp;"_"&amp;C64,B64&amp;"_"&amp;C64&amp;"_"&amp;D64)</f>
         <v>dialog_stg1before_3</v>
@@ -2661,7 +2036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_4</v>
@@ -2679,7 +2054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_5</v>
@@ -2697,7 +2072,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_6</v>
@@ -2715,7 +2090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_7</v>
@@ -2733,7 +2108,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_8</v>
@@ -2751,7 +2126,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_9</v>
@@ -2769,7 +2144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_10</v>
@@ -2787,7 +2162,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_11</v>
@@ -2805,7 +2180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_12</v>
@@ -2823,7 +2198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_13</v>
@@ -2841,7 +2216,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_14</v>
@@ -2859,7 +2234,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_15</v>
@@ -2877,7 +2252,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_16</v>
@@ -2895,7 +2270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_17</v>
@@ -2913,7 +2288,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_18</v>
@@ -2931,7 +2306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_19</v>
@@ -2949,7 +2324,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_20</v>
@@ -2967,7 +2342,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_21</v>
@@ -2985,7 +2360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1before_22</v>
@@ -3003,7 +2378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f t="shared" si="4"/>
         <v>dialog_stg1after_1</v>
@@ -3011,8 +2386,8 @@
       <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>136</v>
+      <c r="C84" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -3021,174 +2396,174 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>dialog_stg2after_2</v>
+        <v>dialog_stg1after_2</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>138</v>
+      <c r="C85" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f t="shared" ref="A86:A93" si="5">IF(ISBLANK(D86),B86&amp;"_"&amp;C86,B86&amp;"_"&amp;C86&amp;"_"&amp;D86)</f>
-        <v>dialog_stg3after_3</v>
+        <v>dialog_stg1after_3</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>140</v>
+      <c r="C86" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D86" s="2">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg4after_4</v>
+        <v>dialog_stg1after_4</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>142</v>
+      <c r="C87" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D87" s="2">
         <v>4</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg5after_5</v>
+        <v>dialog_stg1after_5</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>144</v>
+      <c r="C88" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D88" s="2">
         <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg6after_6</v>
+        <v>dialog_stg1after_6</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>146</v>
+      <c r="C89" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D89" s="2">
         <v>6</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg7after_7</v>
+        <v>dialog_stg1after_7</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>148</v>
+      <c r="C90" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D90" s="2">
         <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg8after_8</v>
+        <v>dialog_stg1after_8</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>150</v>
+      <c r="C91" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D91" s="2">
         <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg9after_9</v>
+        <v>dialog_stg1after_9</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>152</v>
+      <c r="C92" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D92" s="2">
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>dialog_stg10after_10</v>
+        <v>dialog_stg1after_10</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>154</v>
+      <c r="C93" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D93" s="2">
         <v>10</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:G57">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G57">
     <sortCondition ref="B4:B57"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/TID.xlsx
+++ b/settings/data/TID.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -125,7 +125,7 @@
     <t>keine</t>
   </si>
   <si>
-    <t>数符「直线、射线、线段」</t>
+    <t>数符「平面几何初步」</t>
   </si>
   <si>
     <t>史符「赤壁业炎」</t>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1272727272727" defaultRowHeight="14" outlineLevelCol="6"/>
